--- a/file2.xlsx
+++ b/file2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miket/Downloads/Portfolio_Projects/cli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C8EAA-056C-344B-9618-289F64AEFD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0563D-19A6-7F44-85EF-E17289170D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{0851F0FD-89FF-1948-B25E-60702C1D489B}"/>
+    <workbookView xWindow="16100" yWindow="6160" windowWidth="28040" windowHeight="17440" xr2:uid="{0851F0FD-89FF-1948-B25E-60702C1D489B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,28 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Adam</t>
+    <t>Accounting</t>
   </si>
   <si>
-    <t>Bob</t>
+    <t>Role</t>
   </si>
   <si>
-    <t>Charlie</t>
+    <t>Hours</t>
   </si>
   <si>
-    <t>Daniel</t>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,44 +426,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EBFAE1-BC30-4449-8674-E31595D30E86}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
